--- a/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G3">
-        <v>4.2</v>
+        <v>0.023</v>
       </c>
       <c r="H3">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.165</v>
+        <v>1.073</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,16 +560,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Loligo vulgaris</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>LOLIVUL</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.108</v>
+        <v>0.02</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.335</v>
+        <v>0.912</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G7">
-        <v>2.023</v>
+        <v>0.261</v>
       </c>
       <c r="H7">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.025</v>
+        <v>0.331</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.008999999999999999</v>
+        <v>0.418</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.139</v>
+        <v>0.747</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.089</v>
+        <v>2.167</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.065</v>
+        <v>1.121</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Natica stercusmuscarum</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NATISTE</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.019</v>
+        <v>0.125</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -924,24 +924,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G14">
-        <v>2.375</v>
+        <v>0.093</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -965,24 +965,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.083</v>
+        <v>0.026</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1006,24 +1006,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pegusa impar</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.07000000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1047,24 +1047,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.348</v>
+        <v>0.745</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1088,21 +1088,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.462</v>
+        <v>0.198</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1129,24 +1129,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.375</v>
+        <v>0.268</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1170,24 +1170,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.114</v>
+        <v>0.469</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.039</v>
+        <v>0.015</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.016</v>
+        <v>1.951</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G23">
-        <v>4.062</v>
+        <v>0.522</v>
       </c>
       <c r="H23">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.075</v>
+        <v>1.588</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1360,7 +1360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.305</v>
+        <v>2.106</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Trachinus draco</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="G26">
-        <v>2.166</v>
+        <v>0.058</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1462,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.813</v>
+        <v>0.281</v>
       </c>
       <c r="H27">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1483,7 +1483,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1503,28 +1503,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Galeodea echinophora</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>GALEECH</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1544,28 +1544,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.362</v>
+        <v>0.005</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1585,28 +1585,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mullus barbatus</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.11</v>
+        <v>0.011</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,28 +1626,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G31">
         <v>0.001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1667,28 +1667,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Galeodea echinophora</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>GALEECH</t>
         </is>
       </c>
       <c r="G32">
-        <v>1.791</v>
+        <v>0.013</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,28 +1708,28 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.049</v>
+        <v>0.002</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,28 +1749,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pegusa impar</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.11</v>
+        <v>0.007</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1790,28 +1790,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G35">
-        <v>1.437</v>
+        <v>5.65</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Solenocera membranacea</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLOMEM</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.872</v>
+        <v>0.002</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1872,28 +1872,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.113</v>
+        <v>0.001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,965 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.001</v>
+        <v>0.329</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Anadara kagoshimensis</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>ANADKAG</t>
-        </is>
-      </c>
-      <c r="G39">
-        <v>0.089</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Anadara transversa</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ANADTRA</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>4.435</v>
-      </c>
-      <c r="H40">
-        <v>3038</v>
-      </c>
-      <c r="I40">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Anomia ephippium</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ANOMEPH</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>0.001</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Antalis inaequicostata</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DENTINA</t>
-        </is>
-      </c>
-      <c r="G42">
-        <v>0.001</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Aporrhais pespelecani</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>APORPES</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>0.408</v>
-      </c>
-      <c r="H43">
-        <v>73</v>
-      </c>
-      <c r="I43">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Ascidiella aspersa</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ASCIASP</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>0.19</v>
-      </c>
-      <c r="H44">
-        <v>87</v>
-      </c>
-      <c r="I44">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Astropecten irregularis</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>ASTRIRR</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>0.016</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Biological discard</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>BIOLDIS</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>0.037</v>
-      </c>
-      <c r="H46">
-        <v>-1</v>
-      </c>
-      <c r="I46">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Chlamys varia</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>CHLAVAR</t>
-        </is>
-      </c>
-      <c r="G47">
-        <v>0.001</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Corbula gibba</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>CORBGIB</t>
-        </is>
-      </c>
-      <c r="G48">
-        <v>0.023</v>
-      </c>
-      <c r="H48">
-        <v>96</v>
-      </c>
-      <c r="I48">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Echinocardium cordatum</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>ECHICOR</t>
-        </is>
-      </c>
-      <c r="G49">
-        <v>0.033</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Eunicidae nd</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>EUNIND</t>
-        </is>
-      </c>
-      <c r="G50">
-        <v>0.001</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Goneplax rhomboides</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>GONERHO</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>0.003</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ilia nucleus</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ILIANUC</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>0.001</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Medorippe lanata</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>MEDOLAN</t>
-        </is>
-      </c>
-      <c r="G53">
-        <v>0.005</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Modiolus barbatus</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>MODIBAR</t>
-        </is>
-      </c>
-      <c r="G54">
-        <v>0.002</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Musculus subpictus</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>MUSCSUB</t>
-        </is>
-      </c>
-      <c r="G55">
-        <v>0.001</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Nassarius mutabilis</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>NASSMUT</t>
-        </is>
-      </c>
-      <c r="G56">
-        <v>0.008</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Nereididae nd</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>NEREIDI</t>
-        </is>
-      </c>
-      <c r="G57">
-        <v>0.001</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Ophiura ophiura</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>OPHIOPH</t>
-        </is>
-      </c>
-      <c r="G58">
-        <v>0.026</v>
-      </c>
-      <c r="H58">
-        <v>24</v>
-      </c>
-      <c r="I58">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Parthenope angulifrons</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PARTANG</t>
-        </is>
-      </c>
-      <c r="G59">
-        <v>0.015</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Shells NA</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>SHELLS</t>
-        </is>
-      </c>
-      <c r="G60">
-        <v>1.507</v>
-      </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-      <c r="I60">
-        <v>99.11028571428572</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G61">
-        <v>0.033</v>
-      </c>
-      <c r="H61">
-        <v>-1</v>
-      </c>
-      <c r="I61">
-        <v>99.11028571428572</v>
+        <v>100.1797142857143</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
@@ -1518,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="I28">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>100.1797142857143</v>
+        <v>22.83225</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="G21">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1749,19 +1749,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Parapenaeus longirostris</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.007</v>
+        <v>5.65</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>22.83225</v>
@@ -1790,19 +1790,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Solenocera membranacea</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SOLOMEM</t>
         </is>
       </c>
       <c r="G35">
-        <v>5.65</v>
+        <v>0.002</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>22.83225</v>
@@ -1831,16 +1831,16 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Solenocera membranacea</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SOLOMEM</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1872,62 +1872,21 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.001</v>
+        <v>0.329</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>22.83225</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>0.329</v>
-      </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-      <c r="I38">
         <v>22.83225</v>
       </c>
     </row>
